--- a/Matriz de habilidade.xlsx
+++ b/Matriz de habilidade.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>Projeto Matriz de Habilidades</t>
   </si>
@@ -28,13 +28,10 @@
     <t>Fernanda</t>
   </si>
   <si>
-    <t>Lucas G</t>
-  </si>
-  <si>
     <t>Victor H</t>
   </si>
   <si>
-    <t>AWS Iot Core</t>
+    <t>ThingSpeak</t>
   </si>
   <si>
     <t>Nivel 1</t>
@@ -76,7 +73,7 @@
     <t>Entendi</t>
   </si>
   <si>
-    <t>Comunicação MQTT</t>
+    <t>Comunicação HTTP</t>
   </si>
   <si>
     <t>Nível 3</t>
@@ -131,6 +128,11 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Aptos narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -140,11 +142,6 @@
     </font>
     <font>
       <b/>
-      <color theme="1"/>
-      <name val="Aptos narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Aptos narrow"/>
       <scheme val="minor"/>
@@ -200,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border/>
     <border>
       <left style="medium">
@@ -300,6 +297,11 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
     </border>
     <border>
       <top style="medium">
@@ -310,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -331,11 +333,11 @@
     <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,20 +395,21 @@
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -646,14 +649,14 @@
     <row r="1" ht="14.25" customHeight="1"/>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="E4" s="4" t="s">
@@ -671,196 +674,185 @@
       <c r="I4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9" t="s">
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="10" t="s">
+      <c r="N6" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="13"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O7" s="16" t="s">
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="K8" s="20"/>
       <c r="N8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="E9" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="F9" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="K9" s="22"/>
       <c r="N9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="E10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="E10" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="F10" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="23" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="K10" s="20"/>
       <c r="N10" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="E11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="E11" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F11" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9" t="s">
-        <v>9</v>
+      <c r="I11" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="K11" s="20"/>
       <c r="N11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="27" t="s">
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="E12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="E12" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="F12" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="23" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="K12" s="20"/>
       <c r="N12" s="28"/>
@@ -868,30 +860,30 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="E13" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="J13" s="30"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -931,21 +923,21 @@
       <c r="K18" s="20"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="31"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="31"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="20"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -953,52 +945,52 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="K22" s="20"/>
-      <c r="M22" s="34"/>
+      <c r="M22" s="35"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="K23" s="20"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="K24" s="35"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="K25" s="35"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
     </row>
     <row r="30" ht="14.25" customHeight="1"/>
     <row r="31" ht="14.25" customHeight="1"/>
@@ -1973,7 +1965,6 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="E3:J3"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="O8:P8"/>
@@ -1981,6 +1972,7 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="O12:P12"/>
+    <mergeCell ref="D3:I3"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
